--- a/biology/Médecine/1290_en_santé_et_médecine/1290_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1290_en_santé_et_médecine/1290_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1290_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1290_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1290 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1290_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1290_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er mars et 9 août : fondation au Portugal, par le roi Denis Ier et le pape Nicolas IV, de l'université de Lisbonne qui sera transférée à Coimbra en 1308, et qui comprend dès l'origine une faculté de médecine[2].
-Le roi de France Philippe le Bel « donne une sentence pour instituer et maintenir des docteurs [en médecine] à Lyon[3] ».
-Chassé de Milan par Mathieu le Grand, le chirurgien Lanfranc (c.1250-1306) s'exile en France, où il séjournera à Lyon avant de s'installer à Paris en 1295[4],[5].
-Fondation à Hereford, en Angleterre, de St. Giles' Hospital, confié aux franciscains[6].
-Un hôpital Saint-Jacques, origine de l'actuelle maison de retraite, est attesté à Rouffach en Alsace[7].
-1290-1306 : trois maladreries sont attestées aux environs de Vienne, dans la région des Balmes : l'une près de Seyssuel, le long du Rhône, l'autre à Mont-Rosier et la troisième à quelque distance de la ville, en sortant par les portes du Pipet ou Saint-Marcel[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er mars et 9 août : fondation au Portugal, par le roi Denis Ier et le pape Nicolas IV, de l'université de Lisbonne qui sera transférée à Coimbra en 1308, et qui comprend dès l'origine une faculté de médecine.
+Le roi de France Philippe le Bel « donne une sentence pour instituer et maintenir des docteurs [en médecine] à Lyon ».
+Chassé de Milan par Mathieu le Grand, le chirurgien Lanfranc (c.1250-1306) s'exile en France, où il séjournera à Lyon avant de s'installer à Paris en 1295,.
+Fondation à Hereford, en Angleterre, de St. Giles' Hospital, confié aux franciscains.
+Un hôpital Saint-Jacques, origine de l'actuelle maison de retraite, est attesté à Rouffach en Alsace.
+1290-1306 : trois maladreries sont attestées aux environs de Vienne, dans la région des Balmes : l'une près de Seyssuel, le long du Rhône, l'autre à Mont-Rosier et la troisième à quelque distance de la ville, en sortant par les portes du Pipet ou Saint-Marcel.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1290_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1290_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Traduction possible du De regimine sanitatis ad sultanum Babylone de Maïmonide par Armengaud Blaise (c.1264-1312) à Montpellier[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Traduction possible du De regimine sanitatis ad sultanum Babylone de Maïmonide par Armengaud Blaise (c.1264-1312) à Montpellier.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1290_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1290_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. maître d'Ailleu : médecin « qualifié de « magister de Ayllyaco » exerce à Ailleu », sur les terres de l'abbaye de Bonlieu, en Forez, au bord de l'ancienne voie romaine qui conduisait de Lyon à Clermont[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. maître d'Ailleu : médecin « qualifié de « magister de Ayllyaco » exerce à Ailleu », sur les terres de l'abbaye de Bonlieu, en Forez, au bord de l'ancienne voie romaine qui conduisait de Lyon à Clermont.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1290_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1290_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vers 1280-1290 : Gentile da Foligno (mort en 1348), médecin et philosophe italien[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vers 1280-1290 : Gentile da Foligno (mort en 1348), médecin et philosophe italien.</t>
         </is>
       </c>
     </row>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1290_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1290_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Entre 1288 et 1290 : Nicolas de Vigneux (né en 1271), médecin et chanoine à Laon[9],[11].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Entre 1288 et 1290 : Nicolas de Vigneux (né en 1271), médecin et chanoine à Laon,.</t>
         </is>
       </c>
     </row>
